--- a/ResultadoEleicoesDistritos/R. A. AÇORES_VILA DO PORTO.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. AÇORES_VILA DO PORTO.xlsx
@@ -597,64 +597,64 @@
         <v>1560</v>
       </c>
       <c r="H2" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I2" t="n">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="J2" t="n">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>67</v>
+      </c>
+      <c r="T2" t="n">
+        <v>123</v>
+      </c>
+      <c r="U2" t="n">
+        <v>8</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1007</v>
+      </c>
+      <c r="W2" t="n">
         <v>2</v>
       </c>
-      <c r="R2" t="n">
-        <v>9</v>
-      </c>
-      <c r="S2" t="n">
-        <v>71</v>
-      </c>
-      <c r="T2" t="n">
-        <v>114</v>
-      </c>
-      <c r="U2" t="n">
-        <v>7</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1008</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
       <c r="X2" t="n">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
